--- a/TGSProject/Assets/Resources/MessageData/TutorialMessageData.xlsx
+++ b/TGSProject/Assets/Resources/MessageData/TutorialMessageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TGSProject\TGSProject\Assets\Resources\MessageData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20773B8E-68A3-4F9A-9DCB-B5B45041203E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5683EBEE-9334-4EBA-84DB-A592B8FD9741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Right</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>RED</t>
@@ -187,33 +184,70 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hello, World!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あばばばばばテストテストテストテストテスト最高最高最高最高最高最高最高あ</t>
-    <rPh sb="21" eb="23">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GREEN</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <r>
+      <t>この森は、マッシュルーム林と呼ばれていて、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>もともと人間が入っていい場所じゃない。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わかりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待て、向こうにメデゥーサのツタが見える。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めでぅーさのつた、ですか？</t>
+  </si>
+  <si>
+    <t>ああ。ツタと呼ばれているが、あれは植物に擬態している動物だ。</t>
+  </si>
+  <si>
+    <t>ツタ状の末端には血のような赤い目が付いていて</t>
+  </si>
+  <si>
+    <t>あれと目を合わせると、全身の組織が硬化し、石のようになってしまうんだ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えっ</t>
+  </si>
+  <si>
+    <t>だが……君独りなら大丈夫だろう。</t>
+  </si>
+  <si>
+    <t>何せ、目を「合わせられない」からな。</t>
+  </si>
+  <si>
+    <t>ただし、間違っても俺を一緒に連れて行くなよ。</t>
+  </si>
+  <si>
+    <t>俺は進む方向を確認して君に伝えるから、L3と◀▶で指示通りに進め。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君の代わりに俺が目になるから、君は俺の足になり、車椅子を押してくれ。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -223,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;aaa&quot;;&quot;bbb&quot;;&quot;ccc&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +271,26 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -340,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -350,6 +404,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -567,8 +629,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FAD6C82-C3C9-4FB0-9844-B648A96AB599}" name="テーブル2" displayName="テーブル2" ref="A1:G11" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G11" xr:uid="{A6B531AD-F337-4058-9114-33C46863F138}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FAD6C82-C3C9-4FB0-9844-B648A96AB599}" name="テーブル2" displayName="テーブル2" ref="A1:G14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G14" xr:uid="{A6B531AD-F337-4058-9114-33C46863F138}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BB0E5D9F-2D08-4C72-8455-42174E525949}" name="id" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A47C076A-D9B0-4632-9894-3897E0489CD3}" name="name" dataDxfId="5"/>
@@ -845,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -884,27 +946,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="19.8">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -914,20 +976,20 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -937,20 +999,20 @@
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -961,19 +1023,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -984,19 +1046,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1006,20 +1068,20 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1029,20 +1091,20 @@
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
+      <c r="C8" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1052,20 +1114,20 @@
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
+      <c r="C9" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1075,20 +1137,20 @@
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1098,38 +1160,107 @@
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>7</v>
+      <c r="C11" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
         <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12" xr:uid="{8FDBC182-949B-4BCE-AF08-32C16AA220CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15" xr:uid="{8FDBC182-949B-4BCE-AF08-32C16AA220CF}">
       <formula1>"Left,Right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12 E2:E11" xr:uid="{A26CC118-CF99-454A-9DC9-CE5C05F09D3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 E2:E14" xr:uid="{A26CC118-CF99-454A-9DC9-CE5C05F09D3D}">
       <formula1>"S,M,L"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{B814DFD8-34B2-4E91-A5A1-4475D0EBD98F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14" xr:uid="{B814DFD8-34B2-4E91-A5A1-4475D0EBD98F}">
       <formula1>"Left, Right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{C3F2162C-4D28-4657-9A5B-7BE73D5DF5F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14" xr:uid="{C3F2162C-4D28-4657-9A5B-7BE73D5DF5F8}">
       <formula1>"RED, GREEN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F11" xr:uid="{2EB80252-8356-4FDA-B9DD-2525D2876A97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F14" xr:uid="{2EB80252-8356-4FDA-B9DD-2525D2876A97}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{AF10DB70-DBBD-4003-973B-CA0FA2181F63}">
@@ -1156,43 +1287,43 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
